--- a/Project Gantt Chart.xlsx
+++ b/Project Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E5371-784D-479C-9C8F-42EDCCB7CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5430F819-423F-420D-B5B0-D021F7A06AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Takes minutes of meetings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Design Website Logo and Colour Schemes</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1267,7 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1491,18 +1497,6 @@
     <xf numFmtId="167" fontId="8" fillId="46" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1524,11 +1518,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1544,7 +1538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1574,6 +1567,18 @@
     <xf numFmtId="0" fontId="0" fillId="51" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2182,11 +2187,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BN41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN14" sqref="BN14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="108" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2205,7 +2210,7 @@
     <col min="68" max="69" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2218,14 +2223,14 @@
       <c r="G1" s="1"/>
       <c r="H1" s="52"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="44"/>
       <c r="H2" s="53"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
@@ -2233,12 +2238,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="73"/>
-      <c r="D3" s="84">
+      <c r="D3" s="116">
         <v>45317</v>
       </c>
-      <c r="E3" s="84"/>
+      <c r="E3" s="116"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -2249,88 +2254,88 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="113">
         <f>H5</f>
         <v>45313</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="81">
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="113">
         <f>O5</f>
         <v>45320</v>
       </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="81">
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="113">
         <f>V5</f>
         <v>45327</v>
       </c>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="81">
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="113">
         <f>AC5</f>
         <v>45334</v>
       </c>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="81">
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="113">
         <f>AJ5</f>
         <v>45341</v>
       </c>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="81">
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="113">
         <f>AQ5</f>
         <v>45348</v>
       </c>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="83"/>
-      <c r="AX4" s="81">
+      <c r="AR4" s="114"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="113">
         <f>AX5</f>
         <v>45355</v>
       </c>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="83"/>
-      <c r="BE4" s="81">
+      <c r="AY4" s="114"/>
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="114"/>
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="115"/>
+      <c r="BE4" s="113">
         <f>BE5</f>
         <v>45362</v>
       </c>
-      <c r="BF4" s="82"/>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="83"/>
+      <c r="BF4" s="114"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
+      <c r="BJ4" s="114"/>
+      <c r="BK4" s="115"/>
     </row>
-    <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
@@ -2807,7 +2812,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:66" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
@@ -2873,7 +2878,7 @@
       <c r="BJ7" s="27"/>
       <c r="BK7" s="27"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:66" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
@@ -2891,29 +2896,29 @@
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
       <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
       <c r="AJ8" s="27"/>
@@ -2945,7 +2950,7 @@
       <c r="BJ8" s="27"/>
       <c r="BK8" s="27"/>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:66" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>16</v>
       </c>
@@ -2968,62 +2973,62 @@
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="87"/>
-      <c r="AZ9" s="87"/>
-      <c r="BA9" s="87"/>
-      <c r="BB9" s="87"/>
-      <c r="BC9" s="87"/>
-      <c r="BD9" s="87"/>
-      <c r="BE9" s="87"/>
-      <c r="BF9" s="87"/>
-      <c r="BG9" s="87"/>
-      <c r="BH9" s="87"/>
-      <c r="BI9" s="87"/>
-      <c r="BJ9" s="87"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
       <c r="BK9" s="27"/>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:66" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>17</v>
       </c>
@@ -3045,61 +3050,61 @@
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="100"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="100"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="100"/>
-      <c r="AN10" s="100"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="100"/>
-      <c r="AR10" s="100"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="100"/>
-      <c r="AU10" s="100"/>
-      <c r="AV10" s="96"/>
-      <c r="AW10" s="96"/>
-      <c r="AX10" s="96"/>
-      <c r="AY10" s="96"/>
-      <c r="AZ10" s="96"/>
-      <c r="BA10" s="96"/>
-      <c r="BB10" s="96"/>
-      <c r="BC10" s="96"/>
-      <c r="BD10" s="96"/>
-      <c r="BE10" s="96"/>
-      <c r="BF10" s="96"/>
-      <c r="BG10" s="96"/>
-      <c r="BH10" s="96"/>
-      <c r="BI10" s="96"/>
-      <c r="BJ10" s="96"/>
-      <c r="BK10" s="89"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="88"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="88"/>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="88"/>
+      <c r="AU10" s="88"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="92"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="92"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="92"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="92"/>
+      <c r="BG10" s="92"/>
+      <c r="BH10" s="92"/>
+      <c r="BI10" s="92"/>
+      <c r="BJ10" s="92"/>
+      <c r="BK10" s="85"/>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:66" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="46" t="s">
         <v>48</v>
@@ -3126,54 +3131,54 @@
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="103"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="100"/>
-      <c r="AO11" s="100"/>
-      <c r="AP11" s="96"/>
-      <c r="AQ11" s="96"/>
-      <c r="AR11" s="96"/>
-      <c r="AS11" s="96"/>
-      <c r="AT11" s="100"/>
-      <c r="AU11" s="96"/>
-      <c r="AV11" s="96"/>
-      <c r="AW11" s="96"/>
-      <c r="AX11" s="96"/>
-      <c r="AY11" s="96"/>
-      <c r="AZ11" s="96"/>
-      <c r="BA11" s="96"/>
-      <c r="BB11" s="96"/>
-      <c r="BC11" s="96"/>
-      <c r="BD11" s="96"/>
-      <c r="BE11" s="96"/>
-      <c r="BF11" s="96"/>
-      <c r="BG11" s="96"/>
-      <c r="BH11" s="96"/>
-      <c r="BI11" s="96"/>
-      <c r="BJ11" s="96"/>
-      <c r="BK11" s="89"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="85"/>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:66" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="46" t="s">
         <v>45</v>
@@ -3204,50 +3209,50 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="100"/>
-      <c r="AJ12" s="100"/>
-      <c r="AK12" s="100"/>
-      <c r="AL12" s="100"/>
-      <c r="AM12" s="100"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="96"/>
-      <c r="AS12" s="91"/>
-      <c r="AT12" s="91"/>
-      <c r="AU12" s="104"/>
-      <c r="AV12" s="97"/>
-      <c r="AW12" s="97"/>
-      <c r="AX12" s="97"/>
-      <c r="AY12" s="97"/>
-      <c r="AZ12" s="97"/>
-      <c r="BA12" s="97"/>
-      <c r="BB12" s="97"/>
-      <c r="BC12" s="97"/>
-      <c r="BD12" s="97"/>
-      <c r="BE12" s="97"/>
-      <c r="BF12" s="97"/>
-      <c r="BG12" s="97"/>
-      <c r="BH12" s="97"/>
-      <c r="BI12" s="97"/>
-      <c r="BJ12" s="97"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="88"/>
+      <c r="AI12" s="88"/>
+      <c r="AJ12" s="88"/>
+      <c r="AK12" s="88"/>
+      <c r="AL12" s="88"/>
+      <c r="AM12" s="88"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="87"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="93"/>
+      <c r="AW12" s="93"/>
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="93"/>
+      <c r="BA12" s="93"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="93"/>
+      <c r="BE12" s="93"/>
+      <c r="BF12" s="93"/>
+      <c r="BG12" s="93"/>
+      <c r="BH12" s="93"/>
+      <c r="BI12" s="93"/>
+      <c r="BJ12" s="93"/>
       <c r="BK12" s="27"/>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="46" t="s">
         <v>49</v>
@@ -3277,51 +3282,51 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="96"/>
-      <c r="AW13" s="96"/>
-      <c r="AX13" s="96"/>
-      <c r="AY13" s="96"/>
-      <c r="AZ13" s="96"/>
-      <c r="BA13" s="96"/>
-      <c r="BB13" s="96"/>
-      <c r="BC13" s="96"/>
-      <c r="BD13" s="96"/>
-      <c r="BE13" s="96"/>
-      <c r="BF13" s="96"/>
-      <c r="BG13" s="96"/>
-      <c r="BH13" s="96"/>
-      <c r="BI13" s="96"/>
-      <c r="BJ13" s="96"/>
-      <c r="BK13" s="89"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="92"/>
+      <c r="BG13" s="92"/>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="85"/>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:66" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
@@ -3340,60 +3345,63 @@
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="91"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="88"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="88"/>
-      <c r="AY14" s="88"/>
-      <c r="AZ14" s="88"/>
-      <c r="BA14" s="88"/>
-      <c r="BB14" s="88"/>
-      <c r="BC14" s="88"/>
-      <c r="BD14" s="88"/>
-      <c r="BE14" s="88"/>
-      <c r="BF14" s="88"/>
-      <c r="BG14" s="88"/>
-      <c r="BH14" s="88"/>
-      <c r="BI14" s="88"/>
-      <c r="BJ14" s="88"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="84"/>
+      <c r="AZ14" s="84"/>
+      <c r="BA14" s="84"/>
+      <c r="BB14" s="84"/>
+      <c r="BC14" s="84"/>
+      <c r="BD14" s="84"/>
+      <c r="BE14" s="84"/>
+      <c r="BF14" s="84"/>
+      <c r="BG14" s="84"/>
+      <c r="BH14" s="84"/>
+      <c r="BI14" s="84"/>
+      <c r="BJ14" s="84"/>
       <c r="BK14" s="27"/>
+      <c r="BN14" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:66" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="41"/>
       <c r="B15" s="47" t="s">
         <v>44</v>
@@ -3414,39 +3422,39 @@
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="91"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="83"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="83"/>
+      <c r="AP15" s="83"/>
+      <c r="AQ15" s="83"/>
       <c r="AR15" s="27"/>
       <c r="AS15" s="27"/>
       <c r="AT15" s="27"/>
@@ -3468,7 +3476,7 @@
       <c r="BJ15" s="27"/>
       <c r="BK15" s="27"/>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="47" t="s">
         <v>46</v>
@@ -3489,39 +3497,39 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="107"/>
-      <c r="AH16" s="107"/>
-      <c r="AI16" s="107"/>
-      <c r="AJ16" s="107"/>
-      <c r="AK16" s="107"/>
-      <c r="AL16" s="107"/>
-      <c r="AM16" s="107"/>
-      <c r="AN16" s="107"/>
-      <c r="AO16" s="107"/>
-      <c r="AP16" s="107"/>
-      <c r="AQ16" s="107"/>
-      <c r="AR16" s="89"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="102"/>
+      <c r="AN16" s="102"/>
+      <c r="AO16" s="102"/>
+      <c r="AP16" s="102"/>
+      <c r="AQ16" s="102"/>
+      <c r="AR16" s="85"/>
       <c r="AS16" s="27"/>
       <c r="AT16" s="27"/>
       <c r="AU16" s="27"/>
@@ -3579,25 +3587,25 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="108"/>
-      <c r="AM17" s="108"/>
-      <c r="AN17" s="108"/>
-      <c r="AO17" s="108"/>
-      <c r="AP17" s="108"/>
-      <c r="AQ17" s="108"/>
-      <c r="AR17" s="95"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="87"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="102"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="103"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="103"/>
+      <c r="AR17" s="91"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
       <c r="AU17" s="27"/>
       <c r="AV17" s="27"/>
       <c r="AW17" s="27"/>
@@ -3647,47 +3655,47 @@
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="97"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="108"/>
-      <c r="AL18" s="108"/>
-      <c r="AM18" s="108"/>
-      <c r="AN18" s="108"/>
-      <c r="AO18" s="108"/>
-      <c r="AP18" s="108"/>
-      <c r="AQ18" s="108"/>
-      <c r="AR18" s="108"/>
-      <c r="AS18" s="108"/>
-      <c r="AT18" s="108"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="87"/>
-      <c r="BA18" s="87"/>
-      <c r="BB18" s="87"/>
-      <c r="BC18" s="87"/>
-      <c r="BD18" s="87"/>
-      <c r="BE18" s="87"/>
-      <c r="BF18" s="87"/>
-      <c r="BG18" s="87"/>
-      <c r="BH18" s="87"/>
-      <c r="BI18" s="87"/>
-      <c r="BJ18" s="87"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="103"/>
+      <c r="AL18" s="103"/>
+      <c r="AM18" s="103"/>
+      <c r="AN18" s="103"/>
+      <c r="AO18" s="103"/>
+      <c r="AP18" s="103"/>
+      <c r="AQ18" s="103"/>
+      <c r="AR18" s="103"/>
+      <c r="AS18" s="103"/>
+      <c r="AT18" s="103"/>
+      <c r="AU18" s="91"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+      <c r="AZ18" s="83"/>
+      <c r="BA18" s="83"/>
+      <c r="BB18" s="83"/>
+      <c r="BC18" s="83"/>
+      <c r="BD18" s="83"/>
+      <c r="BE18" s="83"/>
+      <c r="BF18" s="83"/>
+      <c r="BG18" s="83"/>
+      <c r="BH18" s="83"/>
+      <c r="BI18" s="83"/>
+      <c r="BJ18" s="83"/>
       <c r="BK18" s="27"/>
     </row>
     <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3720,49 +3728,49 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="96"/>
-      <c r="AG19" s="96"/>
-      <c r="AH19" s="96"/>
-      <c r="AI19" s="96"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="96"/>
-      <c r="AL19" s="96"/>
-      <c r="AM19" s="96"/>
-      <c r="AN19" s="96"/>
-      <c r="AO19" s="96"/>
-      <c r="AP19" s="96"/>
-      <c r="AQ19" s="96"/>
-      <c r="AR19" s="96"/>
-      <c r="AS19" s="96"/>
-      <c r="AT19" s="96"/>
-      <c r="AU19" s="96"/>
-      <c r="AV19" s="96"/>
-      <c r="AW19" s="96"/>
-      <c r="AX19" s="96"/>
-      <c r="AY19" s="96"/>
-      <c r="AZ19" s="96"/>
-      <c r="BA19" s="96"/>
-      <c r="BB19" s="96"/>
-      <c r="BC19" s="96"/>
-      <c r="BD19" s="96"/>
-      <c r="BE19" s="96"/>
-      <c r="BF19" s="96"/>
-      <c r="BG19" s="96"/>
-      <c r="BH19" s="96"/>
-      <c r="BI19" s="96"/>
-      <c r="BJ19" s="96"/>
-      <c r="BK19" s="89"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="92"/>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="92"/>
+      <c r="AS19" s="92"/>
+      <c r="AT19" s="92"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="92"/>
+      <c r="AW19" s="92"/>
+      <c r="AX19" s="92"/>
+      <c r="AY19" s="92"/>
+      <c r="AZ19" s="92"/>
+      <c r="BA19" s="92"/>
+      <c r="BB19" s="92"/>
+      <c r="BC19" s="92"/>
+      <c r="BD19" s="92"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="92"/>
+      <c r="BG19" s="92"/>
+      <c r="BH19" s="92"/>
+      <c r="BI19" s="92"/>
+      <c r="BJ19" s="92"/>
+      <c r="BK19" s="85"/>
     </row>
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
@@ -3783,57 +3791,57 @@
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="88"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="88"/>
-      <c r="AQ20" s="88"/>
-      <c r="AR20" s="88"/>
-      <c r="AS20" s="88"/>
-      <c r="AT20" s="88"/>
-      <c r="AU20" s="88"/>
-      <c r="AV20" s="88"/>
-      <c r="AW20" s="88"/>
-      <c r="AX20" s="88"/>
-      <c r="AY20" s="88"/>
-      <c r="AZ20" s="88"/>
-      <c r="BA20" s="88"/>
-      <c r="BB20" s="88"/>
-      <c r="BC20" s="88"/>
-      <c r="BD20" s="88"/>
-      <c r="BE20" s="88"/>
-      <c r="BF20" s="88"/>
-      <c r="BG20" s="88"/>
-      <c r="BH20" s="88"/>
-      <c r="BI20" s="88"/>
-      <c r="BJ20" s="88"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="84"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
+      <c r="AS20" s="84"/>
+      <c r="AT20" s="84"/>
+      <c r="AU20" s="84"/>
+      <c r="AV20" s="84"/>
+      <c r="AW20" s="84"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="84"/>
+      <c r="AZ20" s="84"/>
+      <c r="BA20" s="84"/>
+      <c r="BB20" s="84"/>
+      <c r="BC20" s="84"/>
+      <c r="BD20" s="84"/>
+      <c r="BE20" s="84"/>
+      <c r="BF20" s="84"/>
+      <c r="BG20" s="84"/>
+      <c r="BH20" s="84"/>
+      <c r="BI20" s="84"/>
+      <c r="BJ20" s="84"/>
       <c r="BK20" s="27"/>
     </row>
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3856,58 +3864,58 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
-      <c r="W21" s="89"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="85"/>
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="87"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="87"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="87"/>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="87"/>
-      <c r="AZ21" s="87"/>
-      <c r="BA21" s="87"/>
-      <c r="BB21" s="87"/>
-      <c r="BC21" s="87"/>
-      <c r="BD21" s="87"/>
-      <c r="BE21" s="87"/>
-      <c r="BF21" s="87"/>
-      <c r="BG21" s="87"/>
-      <c r="BH21" s="87"/>
-      <c r="BI21" s="87"/>
-      <c r="BJ21" s="87"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="83"/>
+      <c r="AO21" s="83"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="83"/>
+      <c r="AR21" s="83"/>
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83"/>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="83"/>
+      <c r="BA21" s="83"/>
+      <c r="BB21" s="83"/>
+      <c r="BC21" s="83"/>
+      <c r="BD21" s="83"/>
+      <c r="BE21" s="83"/>
+      <c r="BF21" s="83"/>
+      <c r="BG21" s="83"/>
+      <c r="BH21" s="83"/>
+      <c r="BI21" s="83"/>
+      <c r="BJ21" s="83"/>
       <c r="BK21" s="27"/>
     </row>
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3931,58 +3939,58 @@
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
       <c r="W22" s="27"/>
       <c r="X22" s="27"/>
-      <c r="Y22" s="112"/>
-      <c r="Z22" s="112"/>
-      <c r="AA22" s="111"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="111"/>
-      <c r="AG22" s="111"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="111"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="111"/>
-      <c r="AN22" s="111"/>
-      <c r="AO22" s="111"/>
-      <c r="AP22" s="111"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="111"/>
-      <c r="AT22" s="111"/>
-      <c r="AU22" s="96"/>
-      <c r="AV22" s="96"/>
-      <c r="AW22" s="96"/>
-      <c r="AX22" s="96"/>
-      <c r="AY22" s="96"/>
-      <c r="AZ22" s="96"/>
-      <c r="BA22" s="96"/>
-      <c r="BB22" s="96"/>
-      <c r="BC22" s="96"/>
-      <c r="BD22" s="96"/>
-      <c r="BE22" s="96"/>
-      <c r="BF22" s="96"/>
-      <c r="BG22" s="96"/>
-      <c r="BH22" s="96"/>
-      <c r="BI22" s="96"/>
-      <c r="BJ22" s="96"/>
-      <c r="BK22" s="89"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="106"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="106"/>
+      <c r="AN22" s="106"/>
+      <c r="AO22" s="106"/>
+      <c r="AP22" s="106"/>
+      <c r="AQ22" s="92"/>
+      <c r="AR22" s="92"/>
+      <c r="AS22" s="106"/>
+      <c r="AT22" s="106"/>
+      <c r="AU22" s="92"/>
+      <c r="AV22" s="92"/>
+      <c r="AW22" s="92"/>
+      <c r="AX22" s="92"/>
+      <c r="AY22" s="92"/>
+      <c r="AZ22" s="92"/>
+      <c r="BA22" s="92"/>
+      <c r="BB22" s="92"/>
+      <c r="BC22" s="92"/>
+      <c r="BD22" s="92"/>
+      <c r="BE22" s="92"/>
+      <c r="BF22" s="92"/>
+      <c r="BG22" s="92"/>
+      <c r="BH22" s="92"/>
+      <c r="BI22" s="92"/>
+      <c r="BJ22" s="92"/>
+      <c r="BK22" s="85"/>
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40"/>
@@ -4005,57 +4013,57 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="111"/>
-      <c r="AI23" s="111"/>
-      <c r="AJ23" s="111"/>
-      <c r="AK23" s="111"/>
-      <c r="AL23" s="111"/>
-      <c r="AM23" s="111"/>
-      <c r="AN23" s="96"/>
-      <c r="AO23" s="96"/>
-      <c r="AP23" s="96"/>
-      <c r="AQ23" s="96"/>
-      <c r="AR23" s="99"/>
-      <c r="AS23" s="88"/>
-      <c r="AT23" s="88"/>
-      <c r="AU23" s="88"/>
-      <c r="AV23" s="88"/>
-      <c r="AW23" s="88"/>
-      <c r="AX23" s="88"/>
-      <c r="AY23" s="88"/>
-      <c r="AZ23" s="88"/>
-      <c r="BA23" s="88"/>
-      <c r="BB23" s="88"/>
-      <c r="BC23" s="88"/>
-      <c r="BD23" s="88"/>
-      <c r="BE23" s="88"/>
-      <c r="BF23" s="88"/>
-      <c r="BG23" s="88"/>
-      <c r="BH23" s="88"/>
-      <c r="BI23" s="88"/>
-      <c r="BJ23" s="88"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="108"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="106"/>
+      <c r="AJ23" s="106"/>
+      <c r="AK23" s="106"/>
+      <c r="AL23" s="106"/>
+      <c r="AM23" s="106"/>
+      <c r="AN23" s="92"/>
+      <c r="AO23" s="92"/>
+      <c r="AP23" s="92"/>
+      <c r="AQ23" s="92"/>
+      <c r="AR23" s="95"/>
+      <c r="AS23" s="84"/>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="84"/>
+      <c r="AZ23" s="84"/>
+      <c r="BA23" s="84"/>
+      <c r="BB23" s="84"/>
+      <c r="BC23" s="84"/>
+      <c r="BD23" s="84"/>
+      <c r="BE23" s="84"/>
+      <c r="BF23" s="84"/>
+      <c r="BG23" s="84"/>
+      <c r="BH23" s="84"/>
+      <c r="BI23" s="84"/>
+      <c r="BJ23" s="84"/>
       <c r="BK23" s="27"/>
     </row>
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4078,58 +4086,58 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="113"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="113"/>
-      <c r="AH24" s="104"/>
-      <c r="AI24" s="97"/>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="97"/>
-      <c r="AL24" s="97"/>
-      <c r="AM24" s="97"/>
-      <c r="AN24" s="97"/>
-      <c r="AO24" s="97"/>
-      <c r="AP24" s="97"/>
-      <c r="AQ24" s="97"/>
-      <c r="AR24" s="87"/>
-      <c r="AS24" s="87"/>
-      <c r="AT24" s="87"/>
-      <c r="AU24" s="87"/>
-      <c r="AV24" s="87"/>
-      <c r="AW24" s="87"/>
-      <c r="AX24" s="87"/>
-      <c r="AY24" s="87"/>
-      <c r="AZ24" s="87"/>
-      <c r="BA24" s="87"/>
-      <c r="BB24" s="87"/>
-      <c r="BC24" s="87"/>
-      <c r="BD24" s="87"/>
-      <c r="BE24" s="87"/>
-      <c r="BF24" s="87"/>
-      <c r="BG24" s="87"/>
-      <c r="BH24" s="87"/>
-      <c r="BI24" s="87"/>
-      <c r="BJ24" s="87"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="108"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="108"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="93"/>
+      <c r="AJ24" s="93"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="93"/>
+      <c r="AM24" s="93"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="93"/>
+      <c r="AQ24" s="93"/>
+      <c r="AR24" s="83"/>
+      <c r="AS24" s="83"/>
+      <c r="AT24" s="83"/>
+      <c r="AU24" s="83"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
+      <c r="AY24" s="83"/>
+      <c r="AZ24" s="83"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
+      <c r="BC24" s="83"/>
+      <c r="BD24" s="83"/>
+      <c r="BE24" s="83"/>
+      <c r="BF24" s="83"/>
+      <c r="BG24" s="83"/>
+      <c r="BH24" s="83"/>
+      <c r="BI24" s="83"/>
+      <c r="BJ24" s="83"/>
       <c r="BK24" s="27"/>
     </row>
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4153,62 +4161,62 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="111"/>
-      <c r="AA25" s="111"/>
-      <c r="AB25" s="111"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="96"/>
-      <c r="AJ25" s="96"/>
-      <c r="AK25" s="96"/>
-      <c r="AL25" s="96"/>
-      <c r="AM25" s="96"/>
-      <c r="AN25" s="96"/>
-      <c r="AO25" s="96"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="96"/>
-      <c r="AR25" s="96"/>
-      <c r="AS25" s="96"/>
-      <c r="AT25" s="96"/>
-      <c r="AU25" s="96"/>
-      <c r="AV25" s="96"/>
-      <c r="AW25" s="96"/>
-      <c r="AX25" s="96"/>
-      <c r="AY25" s="96"/>
-      <c r="AZ25" s="96"/>
-      <c r="BA25" s="96"/>
-      <c r="BB25" s="96"/>
-      <c r="BC25" s="96"/>
-      <c r="BD25" s="96"/>
-      <c r="BE25" s="96"/>
-      <c r="BF25" s="96"/>
-      <c r="BG25" s="96"/>
-      <c r="BH25" s="96"/>
-      <c r="BI25" s="96"/>
-      <c r="BJ25" s="96"/>
-      <c r="BK25" s="89"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="92"/>
+      <c r="AL25" s="92"/>
+      <c r="AM25" s="92"/>
+      <c r="AN25" s="92"/>
+      <c r="AO25" s="92"/>
+      <c r="AP25" s="92"/>
+      <c r="AQ25" s="92"/>
+      <c r="AR25" s="92"/>
+      <c r="AS25" s="92"/>
+      <c r="AT25" s="92"/>
+      <c r="AU25" s="92"/>
+      <c r="AV25" s="92"/>
+      <c r="AW25" s="92"/>
+      <c r="AX25" s="92"/>
+      <c r="AY25" s="92"/>
+      <c r="AZ25" s="92"/>
+      <c r="BA25" s="92"/>
+      <c r="BB25" s="92"/>
+      <c r="BC25" s="92"/>
+      <c r="BD25" s="92"/>
+      <c r="BE25" s="92"/>
+      <c r="BF25" s="92"/>
+      <c r="BG25" s="92"/>
+      <c r="BH25" s="92"/>
+      <c r="BI25" s="92"/>
+      <c r="BJ25" s="92"/>
+      <c r="BK25" s="85"/>
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40"/>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="81" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="74"/>
@@ -4220,63 +4228,63 @@
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="97"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="88"/>
-      <c r="AN26" s="88"/>
-      <c r="AO26" s="88"/>
-      <c r="AP26" s="88"/>
-      <c r="AQ26" s="88"/>
-      <c r="AR26" s="88"/>
-      <c r="AS26" s="88"/>
-      <c r="AT26" s="88"/>
-      <c r="AU26" s="88"/>
-      <c r="AV26" s="88"/>
-      <c r="AW26" s="88"/>
-      <c r="AX26" s="88"/>
-      <c r="AY26" s="88"/>
-      <c r="AZ26" s="88"/>
-      <c r="BA26" s="88"/>
-      <c r="BB26" s="88"/>
-      <c r="BC26" s="88"/>
-      <c r="BD26" s="88"/>
-      <c r="BE26" s="88"/>
-      <c r="BF26" s="88"/>
-      <c r="BG26" s="88"/>
-      <c r="BH26" s="88"/>
-      <c r="BI26" s="88"/>
-      <c r="BJ26" s="88"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="84"/>
+      <c r="AI26" s="84"/>
+      <c r="AJ26" s="84"/>
+      <c r="AK26" s="84"/>
+      <c r="AL26" s="84"/>
+      <c r="AM26" s="84"/>
+      <c r="AN26" s="84"/>
+      <c r="AO26" s="84"/>
+      <c r="AP26" s="84"/>
+      <c r="AQ26" s="84"/>
+      <c r="AR26" s="84"/>
+      <c r="AS26" s="84"/>
+      <c r="AT26" s="84"/>
+      <c r="AU26" s="84"/>
+      <c r="AV26" s="84"/>
+      <c r="AW26" s="84"/>
+      <c r="AX26" s="84"/>
+      <c r="AY26" s="84"/>
+      <c r="AZ26" s="84"/>
+      <c r="BA26" s="84"/>
+      <c r="BB26" s="84"/>
+      <c r="BC26" s="84"/>
+      <c r="BD26" s="84"/>
+      <c r="BE26" s="84"/>
+      <c r="BF26" s="84"/>
+      <c r="BG26" s="84"/>
+      <c r="BH26" s="84"/>
+      <c r="BI26" s="84"/>
+      <c r="BJ26" s="84"/>
       <c r="BK26" s="27"/>
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="40"/>
       <c r="B27" s="78" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="80">
@@ -4291,39 +4299,39 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="114"/>
-      <c r="Y27" s="114"/>
-      <c r="Z27" s="114"/>
-      <c r="AA27" s="114"/>
-      <c r="AB27" s="114"/>
-      <c r="AC27" s="115"/>
-      <c r="AD27" s="115"/>
-      <c r="AE27" s="115"/>
-      <c r="AF27" s="115"/>
-      <c r="AG27" s="115"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="87"/>
-      <c r="AM27" s="87"/>
-      <c r="AN27" s="87"/>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87"/>
-      <c r="AQ27" s="87"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
+      <c r="AK27" s="83"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="83"/>
+      <c r="AO27" s="83"/>
+      <c r="AP27" s="83"/>
+      <c r="AQ27" s="83"/>
       <c r="AR27" s="27"/>
       <c r="AS27" s="27"/>
       <c r="AT27" s="27"/>
@@ -4363,39 +4371,39 @@
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="114"/>
-      <c r="AD28" s="114"/>
-      <c r="AE28" s="114"/>
-      <c r="AF28" s="114"/>
-      <c r="AG28" s="114"/>
-      <c r="AH28" s="114"/>
-      <c r="AI28" s="114"/>
-      <c r="AJ28" s="114"/>
-      <c r="AK28" s="114"/>
-      <c r="AL28" s="114"/>
-      <c r="AM28" s="114"/>
-      <c r="AN28" s="114"/>
-      <c r="AO28" s="114"/>
-      <c r="AP28" s="114"/>
-      <c r="AQ28" s="114"/>
-      <c r="AR28" s="89"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="109"/>
+      <c r="AF28" s="109"/>
+      <c r="AG28" s="109"/>
+      <c r="AH28" s="109"/>
+      <c r="AI28" s="109"/>
+      <c r="AJ28" s="109"/>
+      <c r="AK28" s="109"/>
+      <c r="AL28" s="109"/>
+      <c r="AM28" s="109"/>
+      <c r="AN28" s="109"/>
+      <c r="AO28" s="109"/>
+      <c r="AP28" s="109"/>
+      <c r="AQ28" s="109"/>
+      <c r="AR28" s="85"/>
       <c r="AS28" s="27"/>
       <c r="AT28" s="27"/>
       <c r="AU28" s="27"/>
@@ -4445,47 +4453,47 @@
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="115"/>
-      <c r="AI29" s="115"/>
-      <c r="AJ29" s="115"/>
-      <c r="AK29" s="115"/>
-      <c r="AL29" s="115"/>
-      <c r="AM29" s="115"/>
-      <c r="AN29" s="115"/>
-      <c r="AO29" s="104"/>
-      <c r="AP29" s="97"/>
-      <c r="AQ29" s="97"/>
-      <c r="AR29" s="87"/>
-      <c r="AS29" s="87"/>
-      <c r="AT29" s="87"/>
-      <c r="AU29" s="87"/>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="87"/>
-      <c r="AY29" s="87"/>
-      <c r="AZ29" s="87"/>
-      <c r="BA29" s="87"/>
-      <c r="BB29" s="87"/>
-      <c r="BC29" s="87"/>
-      <c r="BD29" s="87"/>
-      <c r="BE29" s="87"/>
-      <c r="BF29" s="87"/>
-      <c r="BG29" s="87"/>
-      <c r="BH29" s="87"/>
-      <c r="BI29" s="87"/>
-      <c r="BJ29" s="87"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="94"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="110"/>
+      <c r="AJ29" s="110"/>
+      <c r="AK29" s="110"/>
+      <c r="AL29" s="110"/>
+      <c r="AM29" s="110"/>
+      <c r="AN29" s="110"/>
+      <c r="AO29" s="99"/>
+      <c r="AP29" s="93"/>
+      <c r="AQ29" s="93"/>
+      <c r="AR29" s="83"/>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="83"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="83"/>
+      <c r="AZ29" s="83"/>
+      <c r="BA29" s="83"/>
+      <c r="BB29" s="83"/>
+      <c r="BC29" s="83"/>
+      <c r="BD29" s="83"/>
+      <c r="BE29" s="83"/>
+      <c r="BF29" s="83"/>
+      <c r="BG29" s="83"/>
+      <c r="BH29" s="83"/>
+      <c r="BI29" s="83"/>
+      <c r="BJ29" s="83"/>
       <c r="BK29" s="27"/>
     </row>
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4515,49 +4523,49 @@
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="96"/>
-      <c r="AG30" s="96"/>
-      <c r="AH30" s="96"/>
-      <c r="AI30" s="96"/>
-      <c r="AJ30" s="96"/>
-      <c r="AK30" s="96"/>
-      <c r="AL30" s="96"/>
-      <c r="AM30" s="96"/>
-      <c r="AN30" s="96"/>
-      <c r="AO30" s="96"/>
-      <c r="AP30" s="96"/>
-      <c r="AQ30" s="96"/>
-      <c r="AR30" s="96"/>
-      <c r="AS30" s="96"/>
-      <c r="AT30" s="96"/>
-      <c r="AU30" s="96"/>
-      <c r="AV30" s="96"/>
-      <c r="AW30" s="96"/>
-      <c r="AX30" s="96"/>
-      <c r="AY30" s="96"/>
-      <c r="AZ30" s="96"/>
-      <c r="BA30" s="96"/>
-      <c r="BB30" s="96"/>
-      <c r="BC30" s="96"/>
-      <c r="BD30" s="96"/>
-      <c r="BE30" s="96"/>
-      <c r="BF30" s="96"/>
-      <c r="BG30" s="96"/>
-      <c r="BH30" s="96"/>
-      <c r="BI30" s="96"/>
-      <c r="BJ30" s="96"/>
-      <c r="BK30" s="89"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="92"/>
+      <c r="AL30" s="92"/>
+      <c r="AM30" s="92"/>
+      <c r="AN30" s="92"/>
+      <c r="AO30" s="92"/>
+      <c r="AP30" s="92"/>
+      <c r="AQ30" s="92"/>
+      <c r="AR30" s="92"/>
+      <c r="AS30" s="92"/>
+      <c r="AT30" s="92"/>
+      <c r="AU30" s="92"/>
+      <c r="AV30" s="92"/>
+      <c r="AW30" s="92"/>
+      <c r="AX30" s="92"/>
+      <c r="AY30" s="92"/>
+      <c r="AZ30" s="92"/>
+      <c r="BA30" s="92"/>
+      <c r="BB30" s="92"/>
+      <c r="BC30" s="92"/>
+      <c r="BD30" s="92"/>
+      <c r="BE30" s="92"/>
+      <c r="BF30" s="92"/>
+      <c r="BG30" s="92"/>
+      <c r="BH30" s="92"/>
+      <c r="BI30" s="92"/>
+      <c r="BJ30" s="92"/>
+      <c r="BK30" s="85"/>
     </row>
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="40"/>
@@ -4587,47 +4595,47 @@
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="88"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="93"/>
-      <c r="AK31" s="114"/>
-      <c r="AL31" s="114"/>
-      <c r="AM31" s="114"/>
-      <c r="AN31" s="114"/>
-      <c r="AO31" s="114"/>
-      <c r="AP31" s="114"/>
-      <c r="AQ31" s="114"/>
-      <c r="AR31" s="114"/>
-      <c r="AS31" s="114"/>
-      <c r="AT31" s="114"/>
-      <c r="AU31" s="99"/>
-      <c r="AV31" s="88"/>
-      <c r="AW31" s="88"/>
-      <c r="AX31" s="88"/>
-      <c r="AY31" s="88"/>
-      <c r="AZ31" s="88"/>
-      <c r="BA31" s="88"/>
-      <c r="BB31" s="88"/>
-      <c r="BC31" s="88"/>
-      <c r="BD31" s="88"/>
-      <c r="BE31" s="88"/>
-      <c r="BF31" s="88"/>
-      <c r="BG31" s="88"/>
-      <c r="BH31" s="88"/>
-      <c r="BI31" s="88"/>
-      <c r="BJ31" s="88"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="84"/>
+      <c r="AA31" s="84"/>
+      <c r="AB31" s="84"/>
+      <c r="AC31" s="84"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="84"/>
+      <c r="AF31" s="84"/>
+      <c r="AG31" s="84"/>
+      <c r="AH31" s="84"/>
+      <c r="AI31" s="84"/>
+      <c r="AJ31" s="89"/>
+      <c r="AK31" s="109"/>
+      <c r="AL31" s="109"/>
+      <c r="AM31" s="109"/>
+      <c r="AN31" s="109"/>
+      <c r="AO31" s="109"/>
+      <c r="AP31" s="109"/>
+      <c r="AQ31" s="109"/>
+      <c r="AR31" s="109"/>
+      <c r="AS31" s="109"/>
+      <c r="AT31" s="109"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="84"/>
+      <c r="AW31" s="84"/>
+      <c r="AX31" s="84"/>
+      <c r="AY31" s="84"/>
+      <c r="AZ31" s="84"/>
+      <c r="BA31" s="84"/>
+      <c r="BB31" s="84"/>
+      <c r="BC31" s="84"/>
+      <c r="BD31" s="84"/>
+      <c r="BE31" s="84"/>
+      <c r="BF31" s="84"/>
+      <c r="BG31" s="84"/>
+      <c r="BH31" s="84"/>
+      <c r="BI31" s="84"/>
+      <c r="BJ31" s="84"/>
       <c r="BK31" s="27"/>
     </row>
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4649,41 +4657,41 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="83"/>
+      <c r="Y32" s="83"/>
+      <c r="Z32" s="83"/>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="83"/>
+      <c r="AE32" s="83"/>
+      <c r="AF32" s="83"/>
+      <c r="AG32" s="83"/>
       <c r="AH32" s="27"/>
       <c r="AI32" s="27"/>
       <c r="AJ32" s="27"/>
-      <c r="AK32" s="88"/>
-      <c r="AL32" s="88"/>
-      <c r="AM32" s="88"/>
-      <c r="AN32" s="88"/>
-      <c r="AO32" s="88"/>
-      <c r="AP32" s="88"/>
-      <c r="AQ32" s="88"/>
-      <c r="AR32" s="88"/>
-      <c r="AS32" s="88"/>
-      <c r="AT32" s="88"/>
+      <c r="AK32" s="84"/>
+      <c r="AL32" s="84"/>
+      <c r="AM32" s="84"/>
+      <c r="AN32" s="84"/>
+      <c r="AO32" s="84"/>
+      <c r="AP32" s="84"/>
+      <c r="AQ32" s="84"/>
+      <c r="AR32" s="84"/>
+      <c r="AS32" s="84"/>
+      <c r="AT32" s="84"/>
       <c r="AU32" s="27"/>
       <c r="AV32" s="27"/>
       <c r="AW32" s="27"/>
@@ -4723,39 +4731,39 @@
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="116"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="117"/>
-      <c r="AG33" s="117"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="87"/>
-      <c r="AM33" s="87"/>
-      <c r="AN33" s="87"/>
-      <c r="AO33" s="87"/>
-      <c r="AP33" s="87"/>
-      <c r="AQ33" s="87"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="111"/>
+      <c r="AC33" s="112"/>
+      <c r="AD33" s="112"/>
+      <c r="AE33" s="112"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="112"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="83"/>
+      <c r="AJ33" s="83"/>
+      <c r="AK33" s="83"/>
+      <c r="AL33" s="83"/>
+      <c r="AM33" s="83"/>
+      <c r="AN33" s="83"/>
+      <c r="AO33" s="83"/>
+      <c r="AP33" s="83"/>
+      <c r="AQ33" s="83"/>
       <c r="AR33" s="27"/>
       <c r="AS33" s="27"/>
       <c r="AT33" s="27"/>
@@ -4798,39 +4806,39 @@
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="116"/>
-      <c r="AE34" s="116"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="116"/>
-      <c r="AI34" s="116"/>
-      <c r="AJ34" s="116"/>
-      <c r="AK34" s="116"/>
-      <c r="AL34" s="116"/>
-      <c r="AM34" s="116"/>
-      <c r="AN34" s="116"/>
-      <c r="AO34" s="116"/>
-      <c r="AP34" s="116"/>
-      <c r="AQ34" s="116"/>
-      <c r="AR34" s="89"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="89"/>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="111"/>
+      <c r="AH34" s="111"/>
+      <c r="AI34" s="111"/>
+      <c r="AJ34" s="111"/>
+      <c r="AK34" s="111"/>
+      <c r="AL34" s="111"/>
+      <c r="AM34" s="111"/>
+      <c r="AN34" s="111"/>
+      <c r="AO34" s="111"/>
+      <c r="AP34" s="111"/>
+      <c r="AQ34" s="111"/>
+      <c r="AR34" s="85"/>
       <c r="AS34" s="27"/>
       <c r="AT34" s="27"/>
       <c r="AU34" s="27"/>
@@ -4884,47 +4892,47 @@
       <c r="S35" s="27"/>
       <c r="T35" s="27"/>
       <c r="U35" s="27"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="87"/>
-      <c r="AB35" s="87"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="97"/>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="98"/>
-      <c r="AH35" s="117"/>
-      <c r="AI35" s="117"/>
-      <c r="AJ35" s="117"/>
-      <c r="AK35" s="117"/>
-      <c r="AL35" s="117"/>
-      <c r="AM35" s="117"/>
-      <c r="AN35" s="104"/>
-      <c r="AO35" s="97"/>
-      <c r="AP35" s="97"/>
-      <c r="AQ35" s="97"/>
-      <c r="AR35" s="87"/>
-      <c r="AS35" s="87"/>
-      <c r="AT35" s="87"/>
-      <c r="AU35" s="87"/>
-      <c r="AV35" s="87"/>
-      <c r="AW35" s="87"/>
-      <c r="AX35" s="87"/>
-      <c r="AY35" s="87"/>
-      <c r="AZ35" s="87"/>
-      <c r="BA35" s="87"/>
-      <c r="BB35" s="87"/>
-      <c r="BC35" s="87"/>
-      <c r="BD35" s="87"/>
-      <c r="BE35" s="87"/>
-      <c r="BF35" s="87"/>
-      <c r="BG35" s="87"/>
-      <c r="BH35" s="87"/>
-      <c r="BI35" s="87"/>
-      <c r="BJ35" s="87"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="112"/>
+      <c r="AI35" s="112"/>
+      <c r="AJ35" s="112"/>
+      <c r="AK35" s="112"/>
+      <c r="AL35" s="112"/>
+      <c r="AM35" s="112"/>
+      <c r="AN35" s="99"/>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="93"/>
+      <c r="AQ35" s="93"/>
+      <c r="AR35" s="83"/>
+      <c r="AS35" s="83"/>
+      <c r="AT35" s="83"/>
+      <c r="AU35" s="83"/>
+      <c r="AV35" s="83"/>
+      <c r="AW35" s="83"/>
+      <c r="AX35" s="83"/>
+      <c r="AY35" s="83"/>
+      <c r="AZ35" s="83"/>
+      <c r="BA35" s="83"/>
+      <c r="BB35" s="83"/>
+      <c r="BC35" s="83"/>
+      <c r="BD35" s="83"/>
+      <c r="BE35" s="83"/>
+      <c r="BF35" s="83"/>
+      <c r="BG35" s="83"/>
+      <c r="BH35" s="83"/>
+      <c r="BI35" s="83"/>
+      <c r="BJ35" s="83"/>
       <c r="BK35" s="27"/>
     </row>
     <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4957,49 +4965,49 @@
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
       <c r="T36" s="27"/>
-      <c r="U36" s="86"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="116"/>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="116"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="96"/>
-      <c r="AG36" s="96"/>
-      <c r="AH36" s="96"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="96"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="96"/>
-      <c r="AM36" s="96"/>
-      <c r="AN36" s="96"/>
-      <c r="AO36" s="96"/>
-      <c r="AP36" s="96"/>
-      <c r="AQ36" s="96"/>
-      <c r="AR36" s="96"/>
-      <c r="AS36" s="96"/>
-      <c r="AT36" s="96"/>
-      <c r="AU36" s="96"/>
-      <c r="AV36" s="96"/>
-      <c r="AW36" s="96"/>
-      <c r="AX36" s="96"/>
-      <c r="AY36" s="96"/>
-      <c r="AZ36" s="96"/>
-      <c r="BA36" s="96"/>
-      <c r="BB36" s="96"/>
-      <c r="BC36" s="96"/>
-      <c r="BD36" s="96"/>
-      <c r="BE36" s="96"/>
-      <c r="BF36" s="96"/>
-      <c r="BG36" s="96"/>
-      <c r="BH36" s="96"/>
-      <c r="BI36" s="96"/>
-      <c r="BJ36" s="96"/>
-      <c r="BK36" s="89"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="111"/>
+      <c r="AB36" s="111"/>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="92"/>
+      <c r="AE36" s="92"/>
+      <c r="AF36" s="92"/>
+      <c r="AG36" s="92"/>
+      <c r="AH36" s="92"/>
+      <c r="AI36" s="92"/>
+      <c r="AJ36" s="92"/>
+      <c r="AK36" s="92"/>
+      <c r="AL36" s="92"/>
+      <c r="AM36" s="92"/>
+      <c r="AN36" s="92"/>
+      <c r="AO36" s="92"/>
+      <c r="AP36" s="92"/>
+      <c r="AQ36" s="92"/>
+      <c r="AR36" s="92"/>
+      <c r="AS36" s="92"/>
+      <c r="AT36" s="92"/>
+      <c r="AU36" s="92"/>
+      <c r="AV36" s="92"/>
+      <c r="AW36" s="92"/>
+      <c r="AX36" s="92"/>
+      <c r="AY36" s="92"/>
+      <c r="AZ36" s="92"/>
+      <c r="BA36" s="92"/>
+      <c r="BB36" s="92"/>
+      <c r="BC36" s="92"/>
+      <c r="BD36" s="92"/>
+      <c r="BE36" s="92"/>
+      <c r="BF36" s="92"/>
+      <c r="BG36" s="92"/>
+      <c r="BH36" s="92"/>
+      <c r="BI36" s="92"/>
+      <c r="BJ36" s="92"/>
+      <c r="BK36" s="85"/>
     </row>
     <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
@@ -5031,49 +5039,49 @@
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
       <c r="T37" s="27"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="96"/>
-      <c r="AC37" s="96"/>
-      <c r="AD37" s="96"/>
-      <c r="AE37" s="96"/>
-      <c r="AF37" s="96"/>
-      <c r="AG37" s="96"/>
-      <c r="AH37" s="96"/>
-      <c r="AI37" s="96"/>
-      <c r="AJ37" s="96"/>
-      <c r="AK37" s="116"/>
-      <c r="AL37" s="116"/>
-      <c r="AM37" s="116"/>
-      <c r="AN37" s="116"/>
-      <c r="AO37" s="116"/>
-      <c r="AP37" s="116"/>
-      <c r="AQ37" s="116"/>
-      <c r="AR37" s="116"/>
-      <c r="AS37" s="116"/>
-      <c r="AT37" s="116"/>
-      <c r="AU37" s="96"/>
-      <c r="AV37" s="96"/>
-      <c r="AW37" s="96"/>
-      <c r="AX37" s="96"/>
-      <c r="AY37" s="96"/>
-      <c r="AZ37" s="96"/>
-      <c r="BA37" s="96"/>
-      <c r="BB37" s="96"/>
-      <c r="BC37" s="96"/>
-      <c r="BD37" s="96"/>
-      <c r="BE37" s="96"/>
-      <c r="BF37" s="96"/>
-      <c r="BG37" s="96"/>
-      <c r="BH37" s="96"/>
-      <c r="BI37" s="96"/>
-      <c r="BJ37" s="96"/>
-      <c r="BK37" s="89"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="92"/>
+      <c r="AB37" s="92"/>
+      <c r="AC37" s="92"/>
+      <c r="AD37" s="92"/>
+      <c r="AE37" s="92"/>
+      <c r="AF37" s="92"/>
+      <c r="AG37" s="92"/>
+      <c r="AH37" s="92"/>
+      <c r="AI37" s="92"/>
+      <c r="AJ37" s="92"/>
+      <c r="AK37" s="111"/>
+      <c r="AL37" s="111"/>
+      <c r="AM37" s="111"/>
+      <c r="AN37" s="111"/>
+      <c r="AO37" s="111"/>
+      <c r="AP37" s="111"/>
+      <c r="AQ37" s="111"/>
+      <c r="AR37" s="111"/>
+      <c r="AS37" s="111"/>
+      <c r="AT37" s="111"/>
+      <c r="AU37" s="92"/>
+      <c r="AV37" s="92"/>
+      <c r="AW37" s="92"/>
+      <c r="AX37" s="92"/>
+      <c r="AY37" s="92"/>
+      <c r="AZ37" s="92"/>
+      <c r="BA37" s="92"/>
+      <c r="BB37" s="92"/>
+      <c r="BC37" s="92"/>
+      <c r="BD37" s="92"/>
+      <c r="BE37" s="92"/>
+      <c r="BF37" s="92"/>
+      <c r="BG37" s="92"/>
+      <c r="BH37" s="92"/>
+      <c r="BI37" s="92"/>
+      <c r="BJ37" s="92"/>
+      <c r="BK37" s="85"/>
     </row>
     <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
@@ -5102,47 +5110,47 @@
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
       <c r="U38" s="27"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="88"/>
-      <c r="Y38" s="88"/>
-      <c r="Z38" s="88"/>
-      <c r="AA38" s="88"/>
-      <c r="AB38" s="88"/>
-      <c r="AC38" s="88"/>
-      <c r="AD38" s="88"/>
-      <c r="AE38" s="88"/>
-      <c r="AF38" s="88"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="88"/>
-      <c r="AI38" s="88"/>
-      <c r="AJ38" s="88"/>
-      <c r="AK38" s="88"/>
-      <c r="AL38" s="88"/>
-      <c r="AM38" s="88"/>
-      <c r="AN38" s="88"/>
-      <c r="AO38" s="88"/>
-      <c r="AP38" s="88"/>
-      <c r="AQ38" s="88"/>
-      <c r="AR38" s="88"/>
-      <c r="AS38" s="88"/>
-      <c r="AT38" s="88"/>
-      <c r="AU38" s="88"/>
-      <c r="AV38" s="88"/>
-      <c r="AW38" s="88"/>
-      <c r="AX38" s="88"/>
-      <c r="AY38" s="88"/>
-      <c r="AZ38" s="88"/>
-      <c r="BA38" s="88"/>
-      <c r="BB38" s="88"/>
-      <c r="BC38" s="88"/>
-      <c r="BD38" s="88"/>
-      <c r="BE38" s="88"/>
-      <c r="BF38" s="88"/>
-      <c r="BG38" s="88"/>
-      <c r="BH38" s="88"/>
-      <c r="BI38" s="88"/>
-      <c r="BJ38" s="88"/>
+      <c r="V38" s="84"/>
+      <c r="W38" s="84"/>
+      <c r="X38" s="84"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="84"/>
+      <c r="AA38" s="84"/>
+      <c r="AB38" s="84"/>
+      <c r="AC38" s="84"/>
+      <c r="AD38" s="84"/>
+      <c r="AE38" s="84"/>
+      <c r="AF38" s="84"/>
+      <c r="AG38" s="84"/>
+      <c r="AH38" s="84"/>
+      <c r="AI38" s="84"/>
+      <c r="AJ38" s="84"/>
+      <c r="AK38" s="84"/>
+      <c r="AL38" s="84"/>
+      <c r="AM38" s="84"/>
+      <c r="AN38" s="84"/>
+      <c r="AO38" s="84"/>
+      <c r="AP38" s="84"/>
+      <c r="AQ38" s="84"/>
+      <c r="AR38" s="84"/>
+      <c r="AS38" s="84"/>
+      <c r="AT38" s="84"/>
+      <c r="AU38" s="84"/>
+      <c r="AV38" s="84"/>
+      <c r="AW38" s="84"/>
+      <c r="AX38" s="84"/>
+      <c r="AY38" s="84"/>
+      <c r="AZ38" s="84"/>
+      <c r="BA38" s="84"/>
+      <c r="BB38" s="84"/>
+      <c r="BC38" s="84"/>
+      <c r="BD38" s="84"/>
+      <c r="BE38" s="84"/>
+      <c r="BF38" s="84"/>
+      <c r="BG38" s="84"/>
+      <c r="BH38" s="84"/>
+      <c r="BI38" s="84"/>
+      <c r="BJ38" s="84"/>
       <c r="BK38" s="27"/>
     </row>
     <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
